--- a/EmiMollova/Test Cases Bills Homework/Test Case Bills002.xlsx
+++ b/EmiMollova/Test Cases Bills Homework/Test Case Bills002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skillo-QA\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\skillotest\EmiMollova\Test Cases Bills Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,19 +68,19 @@
 Access to http://www.onlinebillsExercise.com is ensured</t>
   </si>
   <si>
+    <t>1. The user provides correct username but wrong password</t>
+  </si>
+  <si>
     <t>Bills002</t>
   </si>
   <si>
-    <t>Successful login, the user is redirected to the Homepage</t>
-  </si>
-  <si>
-    <t>1. The user provides correct username &amp; password</t>
-  </si>
-  <si>
-    <t>the user is redirected to the Homepage and Login form appears</t>
-  </si>
-  <si>
-    <t>If a user provides correct password &amp; username, s/he is redirected to the Homepage</t>
+    <t>If a user provides wrong password the login is not successful, a red colored warrning appears</t>
+  </si>
+  <si>
+    <t>Unseccessful login because of providing wrong password</t>
+  </si>
+  <si>
+    <t>Unseccessful login and  red colored message: “Wrong password or username!” appears</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>43605</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -647,10 +647,10 @@
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,8 +658,8 @@
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
